--- a/fromemail.xlsx
+++ b/fromemail.xlsx
@@ -32,23 +32,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yb52056@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pjnpklwpxlcubibj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tyb52056@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420439007@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wenguidexin52056</t>
+    <t>*******@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**********</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*********@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*******@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>************</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -440,13 +440,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
